--- a/05_Gestantes/03_profissionais/procedimentos_profissionais.xlsx
+++ b/05_Gestantes/03_profissionais/procedimentos_profissionais.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adaleny\Lapei\dimensionamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapei_Cigets\Documents\GitHub\dimensionamento\05_Gestantes\03_profissionais\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FEFA81-324E-4A97-8098-AD5EA2DB1A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -22,21 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>ACS</t>
   </si>
@@ -192,18 +184,12 @@
   </si>
   <si>
     <t>Médico</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Enfermeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Médico Ginecologista Obstetra (parto normal) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,16 +231,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,10 +253,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -572,20 +551,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -596,660 +575,664 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>322205</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>223710</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>225250</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>225130</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>223505</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>225130</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C8">
         <v>223505</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>51</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C9">
         <v>225130</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>223505</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>223605</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>223505</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>223208</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>251605</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>515105</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>251510</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>225130</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>3</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>223505</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>322205</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>515105</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>223505</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>225250</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>225250</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>225250</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C25">
         <v>225250</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>225120</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C27">
-        <v>221205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>322205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C28">
-        <v>221205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>322205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C29">
-        <v>221205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>322205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C30">
-        <v>221205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>322205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C31">
-        <v>221205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>322205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>221205</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>221205</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>221205</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>221205</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>221205</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C37">
         <v>221205</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C38">
         <v>221205</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>11</v>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C39">
         <v>221205</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C40">
         <v>221205</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>221205</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>221205</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C43">
         <v>221205</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C44">
         <v>221205</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C45">
         <v>221205</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57"/>
       <c r="B57"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58"/>
       <c r="B58"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61"/>
       <c r="B61"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62"/>
       <c r="B62"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63"/>
       <c r="B63"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64"/>
       <c r="B64"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73"/>
       <c r="B73"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83"/>
       <c r="B83"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B45"/>
+  <autoFilter ref="A1:B45" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B45">
+      <sortCondition ref="B1:B45"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
